--- a/output/ValueSet-CodProv.xlsx
+++ b/output/ValueSet-CodProv.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T12:21:03-03:00</t>
+    <t>2021-09-13T12:43:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-CodProv.xlsx
+++ b/output/ValueSet-CodProv.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core//ValueSet/CodProv</t>
+    <t>http://core.hl7chile.cl/ValueSet/CodProv</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T12:43:20-03:00</t>
+    <t>2021-09-15T12:30:30-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
